--- a/discard模型訓練過程.xlsx
+++ b/discard模型訓練過程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ABA1EA-31AF-4B83-B073-AF62A5C7F972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5096CF-7C9E-4A9F-B102-92C657D2E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>模型名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>層數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,23 +54,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>準確率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>開始時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>訓練最高準確率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>驗證總準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -428,27 +420,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -460,7 +452,7 @@
         <v>1E-3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3">
         <v>45675.916666666664</v>
@@ -468,13 +460,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,6 +542,9 @@
       <c r="B12" s="4">
         <v>0.78125</v>
       </c>
+      <c r="C12" s="4">
+        <v>0.41089999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -558,53 +553,138 @@
       <c r="B13" s="4">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
+      <c r="C13" s="4">
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>1E-3</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F16" s="3">
+        <v>45677.486111111109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="3">
-        <v>45676.9375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.32090000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="B20">
+        <v>59.375</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="B21">
+        <v>62.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="B22">
+        <v>65.625</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.39169999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="B23">
+        <v>68.75</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="B24">
+        <v>71.825000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1.6041666666666667</v>
+      </c>
+      <c r="B26">
+        <v>78.125</v>
       </c>
     </row>
   </sheetData>
